--- a/website_content_creation/authors/Isabel_DaCunhaJuchem/Copy of Author_form.xlsx
+++ b/website_content_creation/authors/Isabel_DaCunhaJuchem/Copy of Author_form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Isabel_DaCunhaJuchem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\OneDrive - NRCan RNCan\Documents\WET lab\GLFC-WET.github.io\website_content_creation\authors\Isabel_DaCunhaJuchem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{42CF3DE5-B933-4D86-BA04-63AF8C75AEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27915045-32BA-43C0-AF94-D1E050634451}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCB5380-1A8D-4C5E-A69B-53848EF38067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9315" yWindow="-13875" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,6 @@
     <t>Isabel da Cunha Juchem</t>
   </si>
   <si>
-    <t>Forest Biologist</t>
-  </si>
-  <si>
     <t>isabel.dacunhajuchem@nrcan-rncan.gc.ca</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>https://natural-resources.canada.ca/great-lakes-forestry-centre/13459</t>
+  </si>
+  <si>
+    <t>Watershed Analyst</t>
   </si>
 </sst>
 </file>
@@ -598,6 +598,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -607,10 +611,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -864,7 +864,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -887,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -952,7 +952,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -964,11 +964,11 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
@@ -983,10 +983,10 @@
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="28">
         <v>2010</v>
@@ -994,10 +994,10 @@
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="29">
         <v>2008</v>
@@ -1005,10 +1005,10 @@
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="29">
         <v>2006</v>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="36"/>
+      <c r="B26" s="38"/>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
@@ -1040,11 +1040,11 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="33" t="s">
         <v>42</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1079,17 +1079,17 @@
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
